--- a/ArticleManage/main_working_folder/output_folders/Data 61 Mechanisms of Methylparaben Adsorption/Data61_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 61 Mechanisms of Methylparaben Adsorption/Data61_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="15%" sheetId="1" r:id="rId1"/>
-    <sheet name="24%" sheetId="2" r:id="rId4"/>
-    <sheet name="33%" sheetId="3" r:id="rId5"/>
-    <sheet name="46%" sheetId="4" r:id="rId6"/>
-    <sheet name="57%" sheetId="5" r:id="rId7"/>
-    <sheet name="68%" sheetId="6" r:id="rId8"/>
-    <sheet name="78%" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2 15%  0-1-0-800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 24%  0-1-0-800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 33%  0-1-0-800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 46%  0-1-0-800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 57%  0-1-0-800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 68%  0-1-0-800 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 78%  0-1-0-800 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -100,7 +100,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 15%</a:t>
+              <a:t>Izoterma adsorpcji probki 15% z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -159,12 +159,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'15%'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 15%  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'15%'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 15%  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -177,6 +177,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -246,6 +248,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -410,7 +414,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 24%</a:t>
+              <a:t>Izoterma adsorpcji probki 24% z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -469,12 +473,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'24%'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 24%  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'24%'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 24%  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -487,6 +491,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -556,6 +562,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -720,7 +728,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 33%</a:t>
+              <a:t>Izoterma adsorpcji probki 33% z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -779,12 +787,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'33%'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 33%  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'33%'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 33%  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -797,6 +805,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -866,6 +876,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1030,7 +1042,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 46%</a:t>
+              <a:t>Izoterma adsorpcji probki 46% z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1089,12 +1101,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'46%'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 46%  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'46%'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 46%  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1107,6 +1119,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1176,6 +1190,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1340,7 +1356,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 57%</a:t>
+              <a:t>Izoterma adsorpcji probki 57% z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1399,12 +1415,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'57%'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 57%  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'57%'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 57%  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1417,6 +1433,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1486,6 +1504,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1650,7 +1670,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 68%</a:t>
+              <a:t>Izoterma adsorpcji probki 68% z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1709,12 +1729,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'68%'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 68%  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'68%'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 68%  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1727,6 +1747,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1796,6 +1818,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1960,7 +1984,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 78%</a:t>
+              <a:t>Izoterma adsorpcji probki 78% z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2019,12 +2043,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'78%'!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 78%  0-1-0-800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'78%'!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 78%  0-1-0-800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2037,6 +2061,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2106,6 +2132,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="800"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 61 Mechanisms of Methylparaben Adsorption/Data61_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 61 Mechanisms of Methylparaben Adsorption/Data61_all_graphs_excel.xlsx
@@ -6734,7 +6734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6755,397 +6755,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.1</v>
+        <v>0.009</v>
       </c>
       <c r="B3" s="0">
-        <v>156.1878</v>
+        <v>142.5345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.12</v>
+        <v>0.0316</v>
       </c>
       <c r="B4" s="0">
-        <v>156.6749</v>
+        <v>151.5684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.14</v>
+        <v>0.0642</v>
       </c>
       <c r="B5" s="0">
-        <v>157.1782</v>
+        <v>155.5834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.16</v>
+        <v>0.0842</v>
       </c>
       <c r="B6" s="0">
-        <v>157.711</v>
+        <v>157.591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.18</v>
+        <v>0.103</v>
       </c>
       <c r="B7" s="0">
-        <v>158.2865</v>
+        <v>157.591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2</v>
+        <v>0.1256</v>
       </c>
       <c r="B8" s="0">
-        <v>158.8398</v>
+        <v>158.5947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.22</v>
+        <v>0.1444</v>
       </c>
       <c r="B9" s="0">
-        <v>159.171</v>
+        <v>159.5985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.24</v>
+        <v>0.1632</v>
       </c>
       <c r="B10" s="0">
-        <v>159.5118</v>
+        <v>159.5985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.26</v>
+        <v>0.182</v>
       </c>
       <c r="B11" s="0">
-        <v>159.8569</v>
+        <v>159.5985</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.28</v>
+        <v>0.202</v>
       </c>
       <c r="B12" s="0">
-        <v>160.2009</v>
+        <v>160.6023</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3</v>
+        <v>0.2521</v>
       </c>
       <c r="B13" s="0">
-        <v>160.5385</v>
+        <v>161.606</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.32</v>
+        <v>0.3023</v>
       </c>
       <c r="B14" s="0">
-        <v>160.8644</v>
+        <v>162.6098</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.34</v>
+        <v>0.3536</v>
       </c>
       <c r="B15" s="0">
-        <v>161.1732</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="B16" s="0">
-        <v>161.4595</v>
+        <v>162.6098</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.38</v>
+        <v>0.4501</v>
       </c>
       <c r="B17" s="0">
-        <v>161.718</v>
+        <v>162.6098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.4</v>
+        <v>0.5003</v>
       </c>
       <c r="B18" s="0">
-        <v>161.9438</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.42</v>
+        <v>0.5491</v>
       </c>
       <c r="B19" s="0">
-        <v>162.1347</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.44</v>
+        <v>0.6193</v>
       </c>
       <c r="B20" s="0">
-        <v>162.2915</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.46</v>
+        <v>0.6682</v>
       </c>
       <c r="B21" s="0">
-        <v>162.4178</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.48</v>
+        <v>0.7196</v>
       </c>
       <c r="B22" s="0">
-        <v>162.5171</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5</v>
+        <v>0.7697</v>
       </c>
       <c r="B23" s="0">
-        <v>162.5931</v>
+        <v>162.6098</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.52</v>
+        <v>0.8186</v>
       </c>
       <c r="B24" s="0">
-        <v>162.6493</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.54</v>
+        <v>0.8373</v>
       </c>
       <c r="B25" s="0">
-        <v>162.6893</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.56</v>
+        <v>0.8499</v>
       </c>
       <c r="B26" s="0">
-        <v>162.7166</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.58</v>
+        <v>0.8749</v>
       </c>
       <c r="B27" s="0">
-        <v>162.7349</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6</v>
+        <v>0.9201</v>
       </c>
       <c r="B28" s="0">
-        <v>162.7476</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.62</v>
+        <v>0.9439</v>
       </c>
       <c r="B29" s="0">
-        <v>162.7571</v>
+        <v>162.6098</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.64</v>
+        <v>0.9702</v>
       </c>
       <c r="B30" s="0">
-        <v>162.763</v>
+        <v>163.6136</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.66</v>
+        <v>0.9927</v>
       </c>
       <c r="B31" s="0">
-        <v>162.7647</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B32" s="0">
-        <v>162.7616</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B33" s="0">
-        <v>162.7528</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B34" s="0">
-        <v>162.7377</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B35" s="0">
-        <v>162.7155</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B36" s="0">
-        <v>162.6857</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B37" s="0">
-        <v>162.6474</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B38" s="0">
-        <v>162.5922</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B39" s="0">
-        <v>162.474</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B40" s="0">
-        <v>162.3388</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B41" s="0">
-        <v>162.2036</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B42" s="0">
-        <v>162.0853</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B43" s="0">
-        <v>162.0009</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.0115</v>
-      </c>
-      <c r="B44" s="0">
-        <v>140.527</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0316</v>
-      </c>
-      <c r="B45" s="0">
-        <v>148.5571</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0616</v>
-      </c>
-      <c r="B46" s="0">
-        <v>152.5721</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0855</v>
-      </c>
-      <c r="B47" s="0">
-        <v>154.5797</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9201</v>
-      </c>
-      <c r="B48" s="0">
-        <v>161.606</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9439</v>
-      </c>
-      <c r="B49" s="0">
-        <v>159.5985</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9702</v>
-      </c>
-      <c r="B50" s="0">
-        <v>159.5985</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9952</v>
-      </c>
-      <c r="B51" s="0">
-        <v>159.5985</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>163.6136</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7154,7 +6994,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7175,405 +7015,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0103</v>
       </c>
       <c r="B3" s="0">
-        <v>184.9505</v>
+        <v>176.6625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0291</v>
       </c>
       <c r="B4" s="0">
-        <v>191.1627</v>
+        <v>191.7189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="B5" s="0">
-        <v>202.4147</v>
+        <v>201.7566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0818</v>
       </c>
       <c r="B6" s="0">
-        <v>205.7096</v>
+        <v>204.7679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.1043</v>
       </c>
       <c r="B7" s="0">
-        <v>208.755</v>
+        <v>208.7829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.1256</v>
       </c>
       <c r="B8" s="0">
-        <v>211.4294</v>
+        <v>212.798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1469</v>
       </c>
       <c r="B9" s="0">
-        <v>213.3417</v>
+        <v>212.798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1683</v>
       </c>
       <c r="B10" s="0">
-        <v>214.3337</v>
+        <v>213.8018</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1883</v>
       </c>
       <c r="B11" s="0">
-        <v>215.0882</v>
+        <v>215.8093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.2059</v>
       </c>
       <c r="B12" s="0">
-        <v>216.0891</v>
+        <v>216.813</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.251</v>
       </c>
       <c r="B13" s="0">
-        <v>216.654</v>
+        <v>215.8093</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.3049</v>
       </c>
       <c r="B14" s="0">
-        <v>217.446</v>
+        <v>217.8168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.355</v>
       </c>
       <c r="B15" s="0">
-        <v>217.4507</v>
+        <v>218.8206</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3988</v>
       </c>
       <c r="B16" s="0">
-        <v>217.4515</v>
+        <v>218.8206</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.4515</v>
       </c>
       <c r="B17" s="0">
-        <v>218.153</v>
+        <v>219.8243</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.5016</v>
       </c>
       <c r="B18" s="0">
-        <v>219.0084</v>
+        <v>218.8206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5492</v>
       </c>
       <c r="B19" s="0">
-        <v>219.0139</v>
+        <v>219.8243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.6006</v>
       </c>
       <c r="B20" s="0">
-        <v>219.2427</v>
+        <v>219.8243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.652</v>
       </c>
       <c r="B21" s="0">
-        <v>219.7966</v>
+        <v>219.8243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.7008</v>
       </c>
       <c r="B22" s="0">
-        <v>219.8327</v>
+        <v>221.8319</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.751</v>
       </c>
       <c r="B23" s="0">
-        <v>219.7974</v>
+        <v>220.8281</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7998</v>
       </c>
       <c r="B24" s="0">
-        <v>219.8139</v>
+        <v>220.8281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.8211</v>
       </c>
       <c r="B25" s="0">
-        <v>219.823</v>
+        <v>221.8319</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8525</v>
       </c>
       <c r="B26" s="0">
-        <v>219.7921</v>
+        <v>221.8319</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8951</v>
       </c>
       <c r="B27" s="0">
-        <v>220.5795</v>
+        <v>221.8319</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.9176</v>
       </c>
       <c r="B28" s="0">
-        <v>220.587</v>
+        <v>220.8281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.9264</v>
       </c>
       <c r="B29" s="0">
-        <v>220.0743</v>
+        <v>221.8319</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.9502</v>
       </c>
       <c r="B30" s="0">
-        <v>219.9599</v>
+        <v>221.8319</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.9941</v>
       </c>
       <c r="B31" s="0">
-        <v>220.5798</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>221.401</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>220.5791</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>220.7379</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>220.5519</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>220.5802</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>221.4008</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>220.581</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>221.3574</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>221.3617</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>221.3621</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>221.3601</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>221.3616</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>221.3607</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>221.3617</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>221.3597</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>221.3623</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>221.3619</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>221.6405</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>221.7113</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>222.0973</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.009</v>
-      </c>
-      <c r="B52" s="0">
-        <v>175.6587</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>221.8319</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7582,7 +7254,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7603,397 +7275,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0091</v>
       </c>
       <c r="B3" s="0">
-        <v>243.6799</v>
+        <v>232.8733</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0317</v>
       </c>
       <c r="B4" s="0">
-        <v>259.0441</v>
+        <v>248.9335</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0581</v>
       </c>
       <c r="B5" s="0">
-        <v>268.2611</v>
+        <v>260.9787</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0806</v>
       </c>
       <c r="B6" s="0">
-        <v>272.2992</v>
+        <v>269.0088</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.1019</v>
       </c>
       <c r="B7" s="0">
-        <v>275.0249</v>
+        <v>274.0276</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.1245</v>
       </c>
       <c r="B8" s="0">
-        <v>277.8867</v>
+        <v>278.0427</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1471</v>
       </c>
       <c r="B9" s="0">
-        <v>281.1483</v>
+        <v>281.054</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1709</v>
       </c>
       <c r="B10" s="0">
-        <v>283.419</v>
+        <v>284.0652</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1922</v>
       </c>
       <c r="B11" s="0">
-        <v>284.8763</v>
+        <v>284.0652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.2085</v>
       </c>
       <c r="B12" s="0">
-        <v>286.0498</v>
+        <v>287.0765</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.2523</v>
       </c>
       <c r="B13" s="0">
-        <v>286.7497</v>
+        <v>289.0841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.3062</v>
       </c>
       <c r="B14" s="0">
-        <v>287.9881</v>
+        <v>290.0878</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.3476</v>
       </c>
       <c r="B15" s="0">
-        <v>288.7742</v>
+        <v>291.0916</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.4002</v>
       </c>
       <c r="B16" s="0">
-        <v>288.6526</v>
+        <v>291.0916</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.4491</v>
       </c>
       <c r="B17" s="0">
-        <v>289.4636</v>
+        <v>291.0916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.5005</v>
       </c>
       <c r="B18" s="0">
-        <v>290.4626</v>
+        <v>292.0954</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5506</v>
       </c>
       <c r="B19" s="0">
-        <v>291.0772</v>
+        <v>293.0991</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5995</v>
       </c>
       <c r="B20" s="0">
-        <v>290.9433</v>
+        <v>294.1029</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.6496</v>
       </c>
       <c r="B21" s="0">
-        <v>291.2144</v>
+        <v>294.1029</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.6985</v>
       </c>
       <c r="B22" s="0">
-        <v>292.2245</v>
+        <v>295.1066</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.7511</v>
       </c>
       <c r="B23" s="0">
-        <v>291.6645</v>
+        <v>295.1066</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="B24" s="0">
-        <v>292.0434</v>
+        <v>295.1066</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.8188</v>
       </c>
       <c r="B25" s="0">
-        <v>292.856</v>
+        <v>295.1066</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8488</v>
       </c>
       <c r="B26" s="0">
-        <v>292.7263</v>
+        <v>295.1066</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8751</v>
       </c>
       <c r="B27" s="0">
-        <v>292.8131</v>
+        <v>294.1029</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.899</v>
       </c>
       <c r="B28" s="0">
-        <v>291.7764</v>
+        <v>294.1029</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.924</v>
       </c>
       <c r="B29" s="0">
-        <v>292.3366</v>
+        <v>295.1066</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.9478</v>
       </c>
       <c r="B30" s="0">
-        <v>293.6083</v>
+        <v>295.1066</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.9741</v>
       </c>
       <c r="B31" s="0">
-        <v>294.0729</v>
+        <v>295.1066</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.9892</v>
       </c>
       <c r="B32" s="0">
-        <v>294.4223</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>293.0925</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>293.5213</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>294.3907</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>294.3457</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>294.4779</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>293.2214</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>293.9259</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>294.9526</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>294.8634</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>295.1004</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>295.3939</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>295.4282</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>296.0407</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>297.1086</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>296.9369</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>296.831</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>296.9105</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>297.0633</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>297.1095</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>296.1104</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8002,7 +7522,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8023,405 +7543,245 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0104</v>
       </c>
       <c r="B3" s="0">
-        <v>254.0795</v>
+        <v>241.9072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.028</v>
       </c>
       <c r="B4" s="0">
-        <v>265.3192</v>
+        <v>263.99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0593</v>
       </c>
       <c r="B5" s="0">
-        <v>283.9888</v>
+        <v>285.069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0756</v>
       </c>
       <c r="B6" s="0">
-        <v>294.0897</v>
+        <v>292.0954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="B7" s="0">
-        <v>302.843</v>
+        <v>302.133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.122</v>
       </c>
       <c r="B8" s="0">
-        <v>308.957</v>
+        <v>308.1556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1459</v>
       </c>
       <c r="B9" s="0">
-        <v>313.6293</v>
+        <v>313.1744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1684</v>
       </c>
       <c r="B10" s="0">
-        <v>318.2283</v>
+        <v>318.1932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1922</v>
       </c>
       <c r="B11" s="0">
-        <v>320.7544</v>
+        <v>322.2083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.2148</v>
       </c>
       <c r="B12" s="0">
-        <v>323.5595</v>
+        <v>325.2196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.2549</v>
       </c>
       <c r="B13" s="0">
-        <v>324.9447</v>
+        <v>328.2309</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.3113</v>
       </c>
       <c r="B14" s="0">
-        <v>327.6032</v>
+        <v>333.2497</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.3664</v>
       </c>
       <c r="B15" s="0">
-        <v>330.0878</v>
+        <v>336.261</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.3978</v>
       </c>
       <c r="B16" s="0">
-        <v>331.6677</v>
+        <v>338.2685</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.4504</v>
       </c>
       <c r="B17" s="0">
-        <v>333.9851</v>
+        <v>338.2685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.4993</v>
       </c>
       <c r="B18" s="0">
-        <v>334.0134</v>
+        <v>339.2723</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5519</v>
       </c>
       <c r="B19" s="0">
-        <v>335.5651</v>
+        <v>340.276</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5995</v>
       </c>
       <c r="B20" s="0">
-        <v>337.1257</v>
+        <v>341.2798</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.6497</v>
       </c>
       <c r="B21" s="0">
-        <v>337.8422</v>
+        <v>341.2798</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.701</v>
       </c>
       <c r="B22" s="0">
-        <v>337.909</v>
+        <v>342.2836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.7512</v>
       </c>
       <c r="B23" s="0">
-        <v>337.909</v>
+        <v>342.2836</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.7988</v>
       </c>
       <c r="B24" s="0">
-        <v>338.697</v>
+        <v>343.2873</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.8213</v>
       </c>
       <c r="B25" s="0">
-        <v>338.3534</v>
+        <v>343.2873</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8477</v>
       </c>
       <c r="B26" s="0">
-        <v>339.4682</v>
+        <v>343.2873</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8702</v>
       </c>
       <c r="B27" s="0">
-        <v>340.2556</v>
+        <v>343.2873</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8965</v>
       </c>
       <c r="B28" s="0">
-        <v>340.2556</v>
+        <v>344.2911</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.9216</v>
       </c>
       <c r="B29" s="0">
-        <v>340.2556</v>
+        <v>344.2911</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.9454</v>
       </c>
       <c r="B30" s="0">
-        <v>340.1774</v>
+        <v>344.2911</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.968</v>
       </c>
       <c r="B31" s="0">
-        <v>341.0369</v>
+        <v>344.2911</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.6</v>
+        <v>0.9905</v>
       </c>
       <c r="B32" s="0">
-        <v>341.82</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>341.0319</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>341.8061</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>341.82</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>341.82</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>341.82</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>342.6064</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>342.5968</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>342.6022</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>342.6192</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>343.3844</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>343.3845</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>343.4296</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>343.3844</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>343.3865</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>343.3842</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>343.383</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>343.67</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>343.6675</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>344.7362</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.0066</v>
-      </c>
-      <c r="B52" s="0">
-        <v>237.8921</v>
-      </c>
-    </row>
-    <row r="53"/>
+        <v>343.2873</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8430,7 +7790,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8451,397 +7811,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.02</v>
+        <v>0.0093</v>
       </c>
       <c r="B3" s="0">
-        <v>339.0547</v>
+        <v>310.1631</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.04</v>
+        <v>0.0294</v>
       </c>
       <c r="B4" s="0">
-        <v>360.6176</v>
+        <v>347.3024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.06</v>
+        <v>0.0595</v>
       </c>
       <c r="B5" s="0">
-        <v>379.6632</v>
+        <v>377.4153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.08</v>
+        <v>0.0783</v>
       </c>
       <c r="B6" s="0">
-        <v>393.2598</v>
+        <v>390.4642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1</v>
+        <v>0.0971</v>
       </c>
       <c r="B7" s="0">
-        <v>404.3732</v>
+        <v>403.5132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12</v>
+        <v>0.1197</v>
       </c>
       <c r="B8" s="0">
-        <v>414.1816</v>
+        <v>414.5546</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.14</v>
+        <v>0.1448</v>
       </c>
       <c r="B9" s="0">
-        <v>423.3942</v>
+        <v>425.596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.16</v>
+        <v>0.1673</v>
       </c>
       <c r="B10" s="0">
-        <v>431.4562</v>
+        <v>433.6261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.18</v>
+        <v>0.1912</v>
       </c>
       <c r="B11" s="0">
-        <v>438.0724</v>
+        <v>440.6524</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2</v>
+        <v>0.2125</v>
       </c>
       <c r="B12" s="0">
-        <v>443.5115</v>
+        <v>446.675</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.22</v>
+        <v>0.2551</v>
       </c>
       <c r="B13" s="0">
-        <v>447.7997</v>
+        <v>453.7014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.24</v>
+        <v>0.3178</v>
       </c>
       <c r="B14" s="0">
-        <v>452.9431</v>
+        <v>463.739</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.26</v>
+        <v>0.3792</v>
       </c>
       <c r="B15" s="0">
-        <v>456.4121</v>
+        <v>467.7541</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.28</v>
+        <v>0.4143</v>
       </c>
       <c r="B16" s="0">
-        <v>459.4613</v>
+        <v>468.7578</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3</v>
+        <v>0.4481</v>
       </c>
       <c r="B17" s="0">
-        <v>462.1505</v>
+        <v>469.7616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.32</v>
+        <v>0.4982</v>
       </c>
       <c r="B18" s="0">
-        <v>463.2666</v>
+        <v>472.7729</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.34</v>
+        <v>0.5484</v>
       </c>
       <c r="B19" s="0">
-        <v>466.091</v>
+        <v>473.7767</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36</v>
+        <v>0.5985</v>
       </c>
       <c r="B20" s="0">
-        <v>467.7907</v>
+        <v>475.7842</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.38</v>
+        <v>0.6486</v>
       </c>
       <c r="B21" s="0">
-        <v>468.287</v>
+        <v>475.7842</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="B22" s="0">
-        <v>469.7919</v>
+        <v>476.788</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.42</v>
+        <v>0.7501</v>
       </c>
       <c r="B23" s="0">
-        <v>469.8206</v>
+        <v>476.788</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.44</v>
+        <v>0.799</v>
       </c>
       <c r="B24" s="0">
-        <v>471.0334</v>
+        <v>477.7917</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.46</v>
+        <v>0.8178</v>
       </c>
       <c r="B25" s="0">
-        <v>472.6279</v>
+        <v>478.7955</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.48</v>
+        <v>0.8491</v>
       </c>
       <c r="B26" s="0">
-        <v>472.8185</v>
+        <v>479.7992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5</v>
+        <v>0.8729</v>
       </c>
       <c r="B27" s="0">
-        <v>473.112</v>
+        <v>479.7992</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.52</v>
+        <v>0.8992</v>
       </c>
       <c r="B28" s="0">
-        <v>473.7826</v>
+        <v>479.7992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.54</v>
+        <v>0.9256</v>
       </c>
       <c r="B29" s="0">
-        <v>475.3979</v>
+        <v>479.7992</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.56</v>
+        <v>0.9481</v>
       </c>
       <c r="B30" s="0">
-        <v>475.5242</v>
+        <v>479.7992</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.58</v>
+        <v>0.9782</v>
       </c>
       <c r="B31" s="0">
-        <v>475.7252</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B32" s="0">
-        <v>476.2424</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>476.2969</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>476.792</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>477.2993</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B36" s="0">
-        <v>477.2107</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B37" s="0">
-        <v>477.4843</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B38" s="0">
-        <v>478.9862</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B39" s="0">
-        <v>479.9781</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B40" s="0">
-        <v>479.8462</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B41" s="0">
-        <v>479.2091</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B42" s="0">
-        <v>479.4341</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B43" s="0">
-        <v>479.5139</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B44" s="0">
-        <v>480.0685</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B45" s="0">
-        <v>481.146</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B46" s="0">
-        <v>480.4692</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B47" s="0">
-        <v>480.0684</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B48" s="0">
-        <v>480.5579</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B49" s="0">
-        <v>481.9552</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B50" s="0">
-        <v>482.6473</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B51" s="0">
-        <v>482.7187</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>479.7992</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -8850,7 +8050,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8871,207 +8071,207 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0316</v>
+        <v>0.0093</v>
       </c>
       <c r="B3" s="0">
-        <v>412.8401</v>
+        <v>363.3626</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.1214</v>
+        <v>0.0295</v>
       </c>
       <c r="B4" s="0">
-        <v>504.4813</v>
+        <v>411.5433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.1419</v>
+        <v>0.0571</v>
       </c>
       <c r="B5" s="0">
-        <v>515.9576</v>
+        <v>449.6863</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1631</v>
+        <v>0.0784</v>
       </c>
       <c r="B6" s="0">
-        <v>527.6206</v>
+        <v>472.7729</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1834</v>
+        <v>0.101</v>
       </c>
       <c r="B7" s="0">
-        <v>537.963</v>
+        <v>490.8407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.205</v>
+        <v>0.1161</v>
       </c>
       <c r="B8" s="0">
-        <v>546.2796</v>
+        <v>503.8896</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2273</v>
+        <v>0.1374</v>
       </c>
       <c r="B9" s="0">
-        <v>558.1462</v>
+        <v>517.9423</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2917</v>
+        <v>0.1612</v>
       </c>
       <c r="B10" s="0">
-        <v>575.8463</v>
+        <v>529.9875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3145</v>
+        <v>0.1838</v>
       </c>
       <c r="B11" s="0">
-        <v>577.4807</v>
+        <v>541.0289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3562</v>
+        <v>0.2064</v>
       </c>
       <c r="B12" s="0">
-        <v>585.5171</v>
+        <v>551.0665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.7214</v>
+        <v>0.254</v>
       </c>
       <c r="B13" s="0">
-        <v>603.0857</v>
+        <v>566.123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0558</v>
+        <v>0.3205</v>
       </c>
       <c r="B14" s="0">
-        <v>451.6939</v>
+        <v>579.1719</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0408</v>
+        <v>0.3794</v>
       </c>
       <c r="B15" s="0">
-        <v>429.611</v>
+        <v>586.1982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0106</v>
+        <v>0.412</v>
       </c>
       <c r="B16" s="0">
-        <v>364.3664</v>
+        <v>589.2095</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0759</v>
+        <v>0.4483</v>
       </c>
       <c r="B17" s="0">
-        <v>469.7616</v>
+        <v>592.2208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.0998</v>
+        <v>0.4984</v>
       </c>
       <c r="B18" s="0">
-        <v>491.8444</v>
+        <v>594.2284</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2515</v>
+        <v>0.5498</v>
       </c>
       <c r="B19" s="0">
-        <v>567.1267</v>
+        <v>596.2359</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4082</v>
+        <v>0.5987</v>
       </c>
       <c r="B20" s="0">
-        <v>591.2171</v>
+        <v>598.2434</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3806</v>
+        <v>0.6513</v>
       </c>
       <c r="B21" s="0">
-        <v>588.2058</v>
+        <v>599.2472</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4483</v>
+        <v>0.7002</v>
       </c>
       <c r="B22" s="0">
-        <v>593.2246</v>
+        <v>600.2509</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4959</v>
+        <v>0.7503</v>
       </c>
       <c r="B23" s="0">
-        <v>596.2359</v>
+        <v>602.2585</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5486</v>
+        <v>0.8029</v>
       </c>
       <c r="B24" s="0">
-        <v>598.2434</v>
+        <v>602.2585</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5987</v>
+        <v>0.8217</v>
       </c>
       <c r="B25" s="0">
-        <v>599.2472</v>
+        <v>603.2622</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6501</v>
+        <v>0.8518</v>
       </c>
       <c r="B26" s="0">
-        <v>602.2585</v>
+        <v>604.266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.7014</v>
+        <v>0.8769</v>
       </c>
       <c r="B27" s="0">
-        <v>602.2585</v>
+        <v>603.2622</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.7491</v>
+        <v>0.8994</v>
       </c>
       <c r="B28" s="0">
         <v>605.2698</v>
@@ -9079,7 +8279,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.8205</v>
+        <v>0.9258</v>
       </c>
       <c r="B29" s="0">
         <v>605.2698</v>
@@ -9087,69 +8287,29 @@
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.8004</v>
+        <v>0.9508</v>
       </c>
       <c r="B30" s="0">
-        <v>606.2735</v>
+        <v>605.2698</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.8493</v>
+        <v>0.9771</v>
       </c>
       <c r="B31" s="0">
-        <v>604.266</v>
+        <v>606.2735</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.8706</v>
+        <v>0.9934</v>
       </c>
       <c r="B32" s="0">
-        <v>604.266</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.8982</v>
-      </c>
-      <c r="B33" s="0">
-        <v>604.266</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9258</v>
-      </c>
-      <c r="B34" s="0">
-        <v>607.2773</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.9533</v>
-      </c>
-      <c r="B35" s="0">
-        <v>607.2773</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.9797</v>
-      </c>
-      <c r="B36" s="0">
-        <v>610.2886</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.9959</v>
-      </c>
-      <c r="B37" s="0">
-        <v>611.2923</v>
-      </c>
-    </row>
-    <row r="38"/>
+        <v>606.2735</v>
+      </c>
+    </row>
+    <row r="33"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -9158,7 +8318,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9179,389 +8339,237 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0057</v>
+        <v>0.0106</v>
       </c>
       <c r="B3" s="0">
-        <v>379.5197</v>
+        <v>382.4341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0258</v>
+        <v>0.0283</v>
       </c>
       <c r="B4" s="0">
-        <v>436.3019</v>
+        <v>440.6524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0552</v>
+        <v>0.0597</v>
       </c>
       <c r="B5" s="0">
-        <v>489.3947</v>
+        <v>492.8482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0746</v>
+        <v>0.0785</v>
       </c>
       <c r="B6" s="0">
-        <v>512.4879</v>
+        <v>515.9348</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0941</v>
+        <v>0.0998</v>
       </c>
       <c r="B7" s="0">
-        <v>535.0344</v>
+        <v>543.0364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0856</v>
+        <v>0.1162</v>
       </c>
       <c r="B8" s="0">
-        <v>517.3869</v>
+        <v>558.0928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1113</v>
+        <v>0.1362</v>
       </c>
       <c r="B9" s="0">
-        <v>553.2175</v>
+        <v>577.1644</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1316</v>
+        <v>0.1588</v>
       </c>
       <c r="B10" s="0">
-        <v>570.1423</v>
+        <v>595.2321</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.1531</v>
+        <v>0.1839</v>
       </c>
       <c r="B11" s="0">
-        <v>587.7807</v>
+        <v>609.2848</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.1733</v>
+        <v>0.2052</v>
       </c>
       <c r="B12" s="0">
-        <v>600.4929</v>
+        <v>622.3338</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.1894</v>
+        <v>0.2554</v>
       </c>
       <c r="B13" s="0">
-        <v>612.3647</v>
+        <v>643.4128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2081</v>
+        <v>0.3206</v>
       </c>
       <c r="B14" s="0">
-        <v>620.7954</v>
+        <v>661.4806</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.2313</v>
+        <v>0.3532</v>
       </c>
       <c r="B15" s="0">
-        <v>634.312</v>
+        <v>667.5031</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.2534</v>
+        <v>0.3945</v>
       </c>
       <c r="B16" s="0">
-        <v>641.8975</v>
+        <v>672.522</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2743</v>
+        <v>0.4484</v>
       </c>
       <c r="B17" s="0">
-        <v>648.5906</v>
+        <v>678.5445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2958</v>
+        <v>0.4986</v>
       </c>
       <c r="B18" s="0">
-        <v>655.1326</v>
+        <v>682.5596</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.3179</v>
+        <v>0.5487</v>
       </c>
       <c r="B19" s="0">
-        <v>659.5947</v>
+        <v>686.5747</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.3396</v>
+        <v>0.6013</v>
       </c>
       <c r="B20" s="0">
-        <v>664.7442</v>
+        <v>689.5859</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3584</v>
+        <v>0.6515</v>
       </c>
       <c r="B21" s="0">
-        <v>666.5432</v>
+        <v>693.601</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3825</v>
+        <v>0.6991</v>
       </c>
       <c r="B22" s="0">
-        <v>671.8491</v>
+        <v>695.6085</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4014</v>
+        <v>0.7505</v>
       </c>
       <c r="B23" s="0">
-        <v>672.1751</v>
+        <v>698.6198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.4247</v>
+        <v>0.8006</v>
       </c>
       <c r="B24" s="0">
-        <v>676.1809</v>
+        <v>700.6274</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4468</v>
+        <v>0.8206</v>
       </c>
       <c r="B25" s="0">
-        <v>676.3631</v>
+        <v>702.6349</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4677</v>
+        <v>0.8507</v>
       </c>
       <c r="B26" s="0">
-        <v>679.4519</v>
+        <v>703.6386</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.491</v>
+        <v>0.8733</v>
       </c>
       <c r="B27" s="0">
-        <v>680.5185</v>
+        <v>703.6386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5093</v>
+        <v>0.8996</v>
       </c>
       <c r="B28" s="0">
-        <v>681.7219</v>
+        <v>704.6424</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5321</v>
+        <v>0.9247</v>
       </c>
       <c r="B29" s="0">
-        <v>685.2117</v>
+        <v>705.6462</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5518</v>
+        <v>0.951</v>
       </c>
       <c r="B30" s="0">
-        <v>684.4784</v>
+        <v>705.6462</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5751</v>
+        <v>0.9748</v>
       </c>
       <c r="B31" s="0">
-        <v>687.9849</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.5976</v>
-      </c>
-      <c r="B32" s="0">
-        <v>687.6963</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6181</v>
-      </c>
-      <c r="B33" s="0">
-        <v>690.7582</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.6412</v>
-      </c>
-      <c r="B34" s="0">
-        <v>691.0782</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.6594</v>
-      </c>
-      <c r="B35" s="0">
-        <v>691.8604</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.6825</v>
-      </c>
-      <c r="B36" s="0">
-        <v>694.8825</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7028</v>
-      </c>
-      <c r="B37" s="0">
-        <v>693.5714</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.7255</v>
-      </c>
-      <c r="B38" s="0">
-        <v>697.3002</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.7685</v>
-      </c>
-      <c r="B39" s="0">
-        <v>698.8646</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.7916</v>
-      </c>
-      <c r="B40" s="0">
-        <v>699.1795</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.812</v>
-      </c>
-      <c r="B41" s="0">
-        <v>699.2452</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.8321</v>
-      </c>
-      <c r="B42" s="0">
-        <v>701.6378</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8532</v>
-      </c>
-      <c r="B43" s="0">
-        <v>701.3934</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8753</v>
-      </c>
-      <c r="B44" s="0">
-        <v>702.0289</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8984</v>
-      </c>
-      <c r="B45" s="0">
-        <v>701.7759</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.9207</v>
-      </c>
-      <c r="B46" s="0">
-        <v>702.9578</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.942</v>
-      </c>
-      <c r="B47" s="0">
-        <v>704.8784</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9618</v>
-      </c>
-      <c r="B48" s="0">
-        <v>704.9231</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9833</v>
-      </c>
-      <c r="B49" s="0">
-        <v>706.7996</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.7517</v>
-      </c>
-      <c r="B50" s="0">
-        <v>698.6198</v>
-      </c>
-    </row>
-    <row r="51"/>
+        <v>706.6499</v>
+      </c>
+    </row>
+    <row r="32"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 61 Mechanisms of Methylparaben Adsorption/Data61_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 61 Mechanisms of Methylparaben Adsorption/Data61_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 15%  0-1-0-800 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 24%  0-1-0-800 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 33%  0-1-0-800 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 46%  0-1-0-800 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 57%  0-1-0-800 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 68%  0-1-0-800 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2 78%  0-1-0-800 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2 15%  0&amp;1&amp;0&amp;800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 24%  0&amp;1&amp;0&amp;800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 33%  0&amp;1&amp;0&amp;800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 46%  0&amp;1&amp;0&amp;800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 57%  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 68%  0&amp;1&amp;0&amp;800 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 78%  0&amp;1&amp;0&amp;800 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -159,12 +159,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 15%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 15%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 15%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 15%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -473,12 +473,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 24%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 24%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 24%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 24%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -787,12 +787,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 33%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 33%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 33%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 33%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1101,12 +1101,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 46%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 46%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 46%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 46%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1415,12 +1415,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 57%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 57%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 57%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 57%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1729,12 +1729,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 68%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 68%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 68%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 68%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2043,12 +2043,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 78%  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 78%  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 78%  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 78%  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
